--- a/ArquivosExcel/planilha.xlsx
+++ b/ArquivosExcel/planilha.xlsx
@@ -452,7 +452,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="0">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>6</x:v>
